--- a/Precision.xlsx
+++ b/Precision.xlsx
@@ -424,14 +424,64 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>kkkk</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>140 MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>llll</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>62 MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>45 MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bbbbbb</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>42 MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Precision.xlsx
+++ b/Precision.xlsx
@@ -1,33 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\github\Precision\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DCC197-2DD1-41C5-88EA-AD4DA5F384EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="React" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="React" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>kkkk</t>
+  </si>
+  <si>
+    <t>140 MS</t>
+  </si>
+  <si>
+    <t>llll</t>
+  </si>
+  <si>
+    <t>62 MS</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>45 MS</t>
+  </si>
+  <si>
+    <t>bbbbbb</t>
+  </si>
+  <si>
+    <t>42 MS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +80,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,68 +394,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>kkkk</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>140 MS</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>llll</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>62 MS</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>45 MS</t>
-        </is>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>bbbbbb</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>42 MS</t>
-        </is>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Precision.xlsx
+++ b/Precision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\github\Precision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DCC197-2DD1-41C5-88EA-AD4DA5F384EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A53983-73E1-48E4-98BD-7D91832F4793}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="React" sheetId="1" r:id="rId1"/>
@@ -20,30 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>kkkk</t>
-  </si>
-  <si>
-    <t>140 MS</t>
   </si>
   <si>
     <t>llll</t>
   </si>
   <si>
-    <t>62 MS</t>
-  </si>
-  <si>
     <t>l</t>
   </si>
   <si>
-    <t>45 MS</t>
-  </si>
-  <si>
     <t>bbbbbb</t>
-  </si>
-  <si>
-    <t>42 MS</t>
   </si>
 </sst>
 </file>
@@ -398,7 +386,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,32 +395,32 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1">
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Precision.xlsx
+++ b/Precision.xlsx
@@ -1,55 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\github\Precision\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A53983-73E1-48E4-98BD-7D91832F4793}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="React" sheetId="1" r:id="rId1"/>
+    <sheet name="React" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>kkkk</t>
-  </si>
-  <si>
-    <t>llll</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>bbbbbb</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -68,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -382,45 +419,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>alexander</t>
+        </is>
       </c>
-      <c r="B1">
-        <v>140</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>mmmmmmmmmm</t>
+        </is>
       </c>
-      <c r="B2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>42</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Precision.xlsx
+++ b/Precision.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -435,22 +435,46 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>alexander</t>
+          <t>djsakl</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>395</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>jhsdakdhsa</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>alexander</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>mmmmmmmmmm</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>100</t>
         </is>

--- a/Precision.xlsx
+++ b/Precision.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Precision" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Precision1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Precision2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Precision3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -422,11 +425,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>50</v>
-      </c>
-    </row>
+    <row r="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -448,4 +447,58 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Precision.xlsx
+++ b/Precision.xlsx
@@ -12,6 +12,9 @@
     <sheet name="Precision1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Precision2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Precision3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Precision4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Precision5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Precision6" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,4 +504,58 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Precision.xlsx
+++ b/Precision.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Precision4" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Precision5" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Precision6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Precision7" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,4 +559,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Precision.xlsx
+++ b/Precision.xlsx
@@ -16,6 +16,8 @@
     <sheet name="Precision5" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Precision6" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Precision7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Precision8" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Precision9" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,6 +437,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Precision.xlsx
+++ b/Precision.xlsx
@@ -18,6 +18,8 @@
     <sheet name="Precision7" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Precision8" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Precision9" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Precision10" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Precision11" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,6 +475,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Precision.xlsx
+++ b/Precision.xlsx
@@ -20,6 +20,7 @@
     <sheet name="Precision9" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Precision10" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Precision11" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Precision12" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -511,6 +512,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Precision.xlsx
+++ b/Precision.xlsx
@@ -21,6 +21,8 @@
     <sheet name="Precision10" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Precision11" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Precision12" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Precision13" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Precision14" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,6 +532,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Precision.xlsx
+++ b/Precision.xlsx
@@ -23,6 +23,8 @@
     <sheet name="Precision12" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Precision13" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Precision14" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Precision15" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Precision16" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -568,6 +570,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Precision.xlsx
+++ b/Precision.xlsx
@@ -25,6 +25,9 @@
     <sheet name="Precision14" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="Precision15" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="Precision16" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Precision17" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Precision18" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Precision19" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -606,6 +609,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -624,6 +645,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
